--- a/数据结构表.xlsx
+++ b/数据结构表.xlsx
@@ -9,16 +9,15 @@
   <sheets>
     <sheet name="信息表" sheetId="1" r:id="rId1"/>
     <sheet name="产品分类表" sheetId="2" r:id="rId2"/>
-    <sheet name="产品分类表-大表" sheetId="3" r:id="rId3"/>
-    <sheet name="产品" sheetId="4" r:id="rId4"/>
-    <sheet name="管理员" sheetId="5" r:id="rId5"/>
+    <sheet name="产品" sheetId="4" r:id="rId3"/>
+    <sheet name="管理员" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
   <si>
     <t>所属表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,22 +135,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>product_first_class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>product_class_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二级菜单分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级菜单分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>product</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,6 +168,70 @@
   </si>
   <si>
     <t>last_login_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站其他图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定的产品类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录IP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -583,7 +630,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -597,7 +644,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -605,41 +652,52 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="G6" t="s">
-        <v>20</v>
+      <c r="G7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +712,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -688,13 +746,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -708,27 +766,27 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -736,7 +794,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -745,7 +803,7 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -757,90 +815,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -873,40 +851,61 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -916,12 +915,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -954,45 +953,60 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/数据结构表.xlsx
+++ b/数据结构表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="信息表" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
   <si>
     <t>所属表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inf-img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,6 +99,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>分类名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否启用1启动0禁用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_login_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_login_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站其他图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定的产品类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inf_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,27 +223,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分类名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否启用1启动0禁用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timestamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
+    <t>add_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -139,99 +235,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>product</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>product_img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_login_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_login_ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>banner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页banner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网站其他图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定的产品类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否启用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录IP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -630,13 +634,13 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -644,60 +648,60 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -712,7 +716,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -746,64 +750,64 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -817,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -851,61 +855,61 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -953,60 +957,60 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
